--- a/data/Nanjing data sumarization.xlsx
+++ b/data/Nanjing data sumarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richi\omen-richiebao\omen_github\guide_to_digitalDesign_of_LAUPArhi_knowledgeStruc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA360601-53C6-480B-8096-2F3742A2FE24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC1980A-5BB3-45AA-B296-92E42521A0FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>IDX</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t>download by yourself</t>
+  </si>
+  <si>
+    <t>Najing Metro Weibo publish</t>
+  </si>
+  <si>
+    <t>Najing Metro Weibo(microblog) publish</t>
+  </si>
+  <si>
+    <t>.db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posts number </t>
+  </si>
+  <si>
+    <t>2016-04-16 to 2018-08-16</t>
+  </si>
+  <si>
+    <t>GitHub</t>
   </si>
 </sst>
 </file>
@@ -203,7 +221,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -247,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -532,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -545,7 +563,7 @@
     <col min="3" max="3" width="17.234375" customWidth="1"/>
     <col min="4" max="4" width="42.29296875" customWidth="1"/>
     <col min="5" max="5" width="38.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.87890625" customWidth="1"/>
+    <col min="6" max="6" width="20.64453125" customWidth="1"/>
     <col min="7" max="7" width="29.9375" customWidth="1"/>
     <col min="8" max="8" width="21.64453125" customWidth="1"/>
   </cols>
@@ -871,6 +889,32 @@
         <v>56</v>
       </c>
       <c r="I12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -887,8 +931,9 @@
     <hyperlink ref="F10" r:id="rId9" xr:uid="{B02CB64A-7970-4998-B42D-1D4437652E69}"/>
     <hyperlink ref="D12" r:id="rId10" location="/./notebook_code/segnet" xr:uid="{E64E65C4-D4AA-4234-B1F1-8D6DF8CE7316}"/>
     <hyperlink ref="F12" r:id="rId11" location="/home" display="https://scihub.copernicus.eu/dhus/ - /home" xr:uid="{8426D1FA-F647-456C-985D-DB5D6301440A}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{7EF60000-9EF5-41D9-8985-9D49F258EC93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>